--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Osm-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Osm-Il6st.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.309054</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H2">
-        <v>42.927162</v>
+        <v>0.012773</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.96608766666666</v>
+        <v>19.827687</v>
       </c>
       <c r="N2">
-        <v>119.898263</v>
+        <v>59.483061</v>
       </c>
       <c r="O2">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="P2">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="Q2">
-        <v>571.8769065910673</v>
+        <v>0.08441968201700001</v>
       </c>
       <c r="R2">
-        <v>5146.892159319606</v>
+        <v>0.759777138153</v>
       </c>
       <c r="S2">
-        <v>0.2616165719423123</v>
+        <v>0.1538389073329896</v>
       </c>
       <c r="T2">
-        <v>0.2616165719423124</v>
+        <v>0.1538389073329896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.309054</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H3">
-        <v>42.927162</v>
+        <v>0.012773</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>255.358833</v>
       </c>
       <c r="O3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="P3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
       <c r="Q3">
-        <v>1217.981110257994</v>
+        <v>0.3624109304343334</v>
       </c>
       <c r="R3">
-        <v>10961.82999232195</v>
+        <v>3.261698373909</v>
       </c>
       <c r="S3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664442</v>
       </c>
       <c r="T3">
-        <v>0.5571899111219771</v>
+        <v>0.6604253914664441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>14.309054</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H4">
-        <v>42.927162</v>
+        <v>0.012773</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.68018833333333</v>
+        <v>23.93873833333333</v>
       </c>
       <c r="N4">
-        <v>83.040565</v>
+        <v>71.816215</v>
       </c>
       <c r="O4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="P4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="Q4">
-        <v>396.0773095918367</v>
+        <v>0.1019231682438889</v>
       </c>
       <c r="R4">
-        <v>3564.69578632653</v>
+        <v>0.9173085141949999</v>
       </c>
       <c r="S4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
       <c r="T4">
-        <v>0.1811935169357105</v>
+        <v>0.1857357012005663</v>
       </c>
     </row>
   </sheetData>
